--- a/Templates/metabolic rate/9_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/9_template_metabolic_rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789B520-B5B5-4CED-B9D3-6AE61EF340BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F58EB-045F-4824-B22C-5DAA6431E7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
